--- a/patient_data/patient_75.xlsx
+++ b/patient_data/patient_75.xlsx
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1324,19 +1324,19 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1401,19 +1401,19 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1478,19 +1478,19 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1513,13 +1513,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1555,19 +1555,19 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1842,28 +1842,28 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1919,28 +1919,28 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2073,13 +2073,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2322,13 +2322,13 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
